--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>O'Sullivan Owed</t>
+  </si>
+  <si>
+    <t>Molloy Owed</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +139,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,12 +171,10 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,6 +182,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +485,7 @@
   <dimension ref="E2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,396 +500,406 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:12" ht="23.25">
-      <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="15.75">
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="2"/>
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="5:12">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>759.86</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
         <v>1672.45</v>
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>248.75</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="5:12" ht="15.75">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>395.92</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="5:12">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>19.95</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="6">
         <f>SUM(F9:F10,F12,F13)</f>
         <v>48.980000000000004</v>
       </c>
     </row>
     <row r="10" spans="5:12">
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="5:12" ht="15.75">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>49</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="5:12">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="6">
         <f>SUM(F11,F16,F18)</f>
         <v>146.22</v>
       </c>
     </row>
     <row r="13" spans="5:12">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>13.98</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="5:12" ht="15.75">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>29.95</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="5:12">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>5.7</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6">
         <f>SUM(F14,F15,F17)</f>
         <v>72.72</v>
       </c>
     </row>
     <row r="16" spans="5:12">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>10.67</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" s="5" t="s">
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="5:12" ht="15.75">
+      <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>37.07</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" s="5" t="s">
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
+      <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>86.55</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="5:12">
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="5:12">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="5:9">
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="5:9">
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Molloy Owed</t>
+  </si>
+  <si>
+    <t>Total Left</t>
+  </si>
+  <si>
+    <t>Total Budget -</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,6 +197,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:L35"/>
+  <dimension ref="E2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,16 +507,19 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:12" ht="23.25">
+    <row r="2" spans="5:16" ht="23.25">
       <c r="E2" s="1"/>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:12" ht="15.75">
+    <row r="5" spans="5:16" ht="15.75">
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -522,11 +536,21 @@
         <v>4</v>
       </c>
       <c r="J5" s="2"/>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="5:12">
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="5:16">
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
@@ -541,13 +565,20 @@
       </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2400</v>
       </c>
       <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
         <v>1672.45</v>
       </c>
-    </row>
-    <row r="7" spans="5:12">
+      <c r="N6" s="9">
+        <f>K6-L6</f>
+        <v>727.55</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16">
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -565,7 +596,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="5:12" ht="15.75">
+    <row r="8" spans="5:16" ht="15.75">
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
@@ -585,7 +616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="5:12">
+    <row r="9" spans="5:16">
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
@@ -606,7 +637,7 @@
         <v>48.980000000000004</v>
       </c>
     </row>
-    <row r="10" spans="5:12">
+    <row r="10" spans="5:16">
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
@@ -624,7 +655,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="5:12" ht="15.75">
+    <row r="11" spans="5:16" ht="15.75">
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
@@ -644,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="5:12">
+    <row r="12" spans="5:16">
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
@@ -665,7 +696,7 @@
         <v>146.22</v>
       </c>
     </row>
-    <row r="13" spans="5:12">
+    <row r="13" spans="5:16">
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
@@ -683,7 +714,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="5:12" ht="15.75">
+    <row r="14" spans="5:16" ht="15.75">
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
@@ -703,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="5:12">
+    <row r="15" spans="5:16">
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
@@ -724,7 +755,7 @@
         <v>72.72</v>
       </c>
     </row>
-    <row r="16" spans="5:12">
+    <row r="16" spans="5:16">
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="E2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,6 +518,7 @@
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="K2" s="9"/>
     </row>
     <row r="5" spans="5:16" ht="15.75">
       <c r="E5" s="2" t="s">
@@ -728,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>25</v>
@@ -748,11 +749,10 @@
         <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L15" s="6">
-        <f>SUM(F14,F15,F17)</f>
-        <v>72.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:16">
@@ -787,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>26</v>
@@ -833,6 +833,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="5:12">
       <c r="E22" s="3"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>H.E.Supplies Pty Ltd</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="E2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,11 +575,11 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
-        <v>1672.45</v>
+        <v>1678.7</v>
       </c>
       <c r="N6" s="9">
         <f>K6-L6</f>
-        <v>727.55</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="7" spans="5:16">
@@ -631,11 +634,11 @@
         <v>8</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(F9:F10,F12,F13)</f>
-        <v>48.980000000000004</v>
+        <f>SUM(F19)</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -652,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -690,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L12" s="6">
         <f>SUM(F11,F16,F18)</f>
@@ -711,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -801,7 +804,7 @@
         <v>86.55</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
@@ -814,11 +817,21 @@
       </c>
     </row>
     <row r="19" spans="5:12">
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="5:12">
       <c r="E20" s="3"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -499,7 +499,7 @@
   <dimension ref="E2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,11 +575,11 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
-        <v>1678.7</v>
+        <v>1692</v>
       </c>
       <c r="N6" s="9">
         <f>K6-L6</f>
-        <v>721.3</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="5:16">
@@ -637,8 +637,8 @@
         <v>6</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(F19)</f>
-        <v>6.25</v>
+        <f>SUM(F19+F20)</f>
+        <v>19.55</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -673,7 +673,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>24</v>
@@ -696,8 +696,8 @@
         <v>6</v>
       </c>
       <c r="L12" s="6">
-        <f>SUM(F11,F16,F18)</f>
-        <v>146.22</v>
+        <f>SUM(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="5:16">
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L16" s="3"/>
     </row>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -834,11 +834,21 @@
       </c>
     </row>
     <row r="20" spans="5:12">
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="5:12">
       <c r="E21" s="3"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,11 +575,11 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
-        <v>1692</v>
+        <v>1788.24</v>
       </c>
       <c r="N6" s="9">
         <f>K6-L6</f>
-        <v>708</v>
+        <v>611.76</v>
       </c>
     </row>
     <row r="7" spans="5:16">
@@ -637,8 +637,8 @@
         <v>6</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(F19+F20)</f>
-        <v>19.55</v>
+        <f>SUM(F19+F20+F22+F23)</f>
+        <v>74.08</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -696,8 +696,8 @@
         <v>6</v>
       </c>
       <c r="L12" s="6">
-        <f>SUM(0)</f>
-        <v>0</v>
+        <f>SUM(F21)</f>
+        <v>41.71</v>
       </c>
     </row>
     <row r="13" spans="5:16">
@@ -851,26 +851,56 @@
       </c>
     </row>
     <row r="21" spans="5:12">
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>41.71</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="5:12">
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4">
+        <v>9.68</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="5:12">
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44.85</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="5:12">
       <c r="E24" s="3"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>H.E.Supplies Pty Ltd</t>
+  </si>
+  <si>
+    <t>Little Bird</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="E2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,11 +578,11 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
-        <v>1788.24</v>
+        <v>1841.24</v>
       </c>
       <c r="N6" s="9">
         <f>K6-L6</f>
-        <v>611.76</v>
+        <v>558.76</v>
       </c>
     </row>
     <row r="7" spans="5:16">
@@ -637,8 +640,8 @@
         <v>6</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(F19+F20+F22+F23)</f>
-        <v>74.08</v>
+        <f>SUM(F19+F20+F22+F23+F24)</f>
+        <v>127.08</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -903,11 +906,21 @@
       </c>
     </row>
     <row r="24" spans="5:12">
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4">
+        <v>53</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="5:12">
       <c r="E25" s="3"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24795" windowHeight="12270"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12615" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Little Bird</t>
+  </si>
+  <si>
+    <t>HobbyKing</t>
+  </si>
+  <si>
+    <t>New Generation Hobbies</t>
+  </si>
+  <si>
+    <t>Brisbane Bearings</t>
   </si>
 </sst>
 </file>
@@ -499,15 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:P35"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="D2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
@@ -578,11 +588,11 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(F6:F39)</f>
-        <v>1841.24</v>
+        <v>2180.9</v>
       </c>
       <c r="N6" s="9">
         <f>K6-L6</f>
-        <v>558.76</v>
+        <v>219.09999999999991</v>
       </c>
     </row>
     <row r="7" spans="5:16">
@@ -640,8 +650,8 @@
         <v>6</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(F19+F20+F22+F23+F24)</f>
-        <v>127.08</v>
+        <f>SUM(F19+F20+F22+F23+F24+F26+F27+F28)</f>
+        <v>366.21</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -699,8 +709,8 @@
         <v>6</v>
       </c>
       <c r="L12" s="6">
-        <f>SUM(F21)</f>
-        <v>41.71</v>
+        <f>SUM(F21,F25)</f>
+        <v>142.24</v>
       </c>
     </row>
     <row r="13" spans="5:16">
@@ -779,7 +789,7 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="5:12" ht="15.75">
+    <row r="17" spans="4:12" ht="15.75">
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
@@ -799,7 +809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="5:12">
+    <row r="18" spans="4:12">
       <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
@@ -819,7 +829,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:12">
+    <row r="19" spans="4:12">
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
@@ -836,7 +849,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="5:12">
+    <row r="20" spans="4:12">
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
@@ -853,7 +869,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="5:12">
+    <row r="21" spans="4:12">
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
@@ -871,7 +890,10 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="5:12">
+    <row r="22" spans="4:12">
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
@@ -888,7 +910,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="5:12">
+    <row r="23" spans="4:12">
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
@@ -896,7 +921,7 @@
         <v>44.85</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
@@ -905,7 +930,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="5:12">
+    <row r="24" spans="4:12">
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>31</v>
       </c>
@@ -913,7 +941,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -922,56 +950,108 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="5:12">
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="5:12">
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="5:12">
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="5:12">
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="5:12">
+    <row r="25" spans="4:12">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="4">
+        <v>100.53</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="4">
+        <v>221.55</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="4">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="5:12">
+    <row r="30" spans="4:12">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="5:12">
+    <row r="31" spans="4:12">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="5:12">
+    <row r="32" spans="4:12">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1007,6 +1087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1019,6 +1100,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/docproject/unofficial_ahns/Rough Budget.xlsx
+++ b/docproject/unofficial_ahns/Rough Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>AHNS Budget (Rough)</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>HobbyRama</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Kincel</t>
@@ -509,10 +506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D2:P35"/>
+  <dimension ref="E2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,16 +551,16 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -630,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="5:16">
@@ -650,8 +647,8 @@
         <v>6</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(F19+F20+F22+F23+F24+F26+F27+F28)</f>
-        <v>366.21</v>
+        <f>SUM(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -683,18 +680,18 @@
         <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="5:16">
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4">
         <v>2.0499999999999998</v>
@@ -709,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="L12" s="6">
-        <f>SUM(F21,F25)</f>
-        <v>142.24</v>
+        <f>SUM(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="5:16">
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4">
         <v>13.98</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="14" spans="5:16" ht="15.75">
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="4">
         <v>29.95</v>
@@ -742,18 +739,18 @@
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="5:16">
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4">
         <v>5.7</v>
@@ -762,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>6</v>
@@ -773,7 +770,7 @@
     </row>
     <row r="16" spans="5:16">
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4">
         <v>10.67</v>
@@ -782,16 +779,16 @@
         <v>6</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="4:12" ht="15.75">
+    <row r="17" spans="5:12" ht="15.75">
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4">
         <v>37.07</v>
@@ -800,18 +797,18 @@
         <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4">
         <v>86.55</v>
@@ -820,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>6</v>
@@ -829,12 +826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:12">
-      <c r="D19">
-        <v>1</v>
-      </c>
+    <row r="19" spans="5:12">
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4">
         <v>6.25</v>
@@ -846,15 +840,12 @@
         <v>8</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12">
-      <c r="D20">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4">
         <v>13.3</v>
@@ -866,15 +857,12 @@
         <v>8</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12">
-      <c r="D21">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12">
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4">
         <v>41.71</v>
@@ -883,19 +871,16 @@
         <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="4:12">
-      <c r="D22">
-        <v>1</v>
-      </c>
+    <row r="22" spans="5:12">
       <c r="E22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="4">
         <v>9.68</v>
@@ -907,15 +892,12 @@
         <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12">
-      <c r="D23">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="4">
         <v>44.85</v>
@@ -927,15 +909,12 @@
         <v>8</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12">
-      <c r="D24">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4">
         <v>53</v>
@@ -947,15 +926,12 @@
         <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12">
-      <c r="D25">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
       <c r="E25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="4">
         <v>100.53</v>
@@ -964,38 +940,32 @@
         <v>6</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12">
-      <c r="D26">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12">
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="4">
         <v>221.55</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12">
-      <c r="D27">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12">
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="4">
         <v>16</v>
@@ -1007,15 +977,12 @@
         <v>8</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12">
-      <c r="D28">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="4">
         <v>1.58</v>
@@ -1027,31 +994,31 @@
         <v>8</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="4:12">
+    <row r="30" spans="5:12">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="4:12">
+    <row r="31" spans="5:12">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="4:12">
+    <row r="32" spans="5:12">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
